--- a/handin/results.xlsx
+++ b/handin/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmusmunk/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmusmunk/repos/set11521cw2/handin/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet21" sheetId="21" r:id="rId2"/>
-    <sheet name="Sheet20" sheetId="20" r:id="rId3"/>
-    <sheet name="Sheet19" sheetId="19" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -530,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P122"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="O121" sqref="O121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1236,6 +1233,12 @@
       <c r="G24">
         <v>100</v>
       </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -1259,8 +1262,14 @@
       <c r="G25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>60</v>
       </c>
@@ -1305,6 +1314,20 @@
       <c r="G27">
         <v>100</v>
       </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -1328,6 +1351,24 @@
       <c r="G28">
         <v>100</v>
       </c>
+      <c r="J28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1.5557113716245001</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1.2924587132540002</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1.5557113716245001</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1.2924587132540002</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -1351,6 +1392,24 @@
       <c r="G29">
         <v>100</v>
       </c>
+      <c r="J29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="3">
+        <v>3.8645291238033133E-2</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2.5797761055180876E-2</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" s="3">
+        <v>3.8645291238033133E-2</v>
+      </c>
+      <c r="P29" s="3">
+        <v>2.5797761055180876E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -1374,6 +1433,24 @@
       <c r="G30">
         <v>100</v>
       </c>
+      <c r="J30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="3">
+        <v>20</v>
+      </c>
+      <c r="L30" s="3">
+        <v>20</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="3">
+        <v>20</v>
+      </c>
+      <c r="P30" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -1397,6 +1474,22 @@
       <c r="G31">
         <v>100</v>
       </c>
+      <c r="J31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="3">
+        <v>19</v>
+      </c>
+      <c r="L31" s="3">
+        <v>19</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="3">
+        <v>3.2221526146607005E-2</v>
+      </c>
+      <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -1420,8 +1513,22 @@
       <c r="G32">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1.4980095038236712</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="N32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>60</v>
       </c>
@@ -1443,8 +1550,22 @@
       <c r="G33">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.19313626964605204</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="N33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="3">
+        <v>38</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>60</v>
       </c>
@@ -1466,8 +1587,22 @@
       <c r="G34">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="4">
+        <v>2.1682516014062614</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="N34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="3">
+        <v>4.6376686076176794</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>60</v>
       </c>
@@ -1489,8 +1624,18 @@
       <c r="G35">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L35" s="1">
+        <v>131734400737</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O35" s="3">
+        <v>2.0446245732345388E-5</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>60</v>
       </c>
@@ -1512,8 +1657,18 @@
       <c r="G36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L36" s="1">
+        <v>124914181672</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="3">
+        <v>1.6859544601667387</v>
+      </c>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>60</v>
       </c>
@@ -1535,8 +1690,18 @@
       <c r="G37">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L37" s="1">
+        <v>116631841312</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="3">
+        <v>4.0892491464690776E-5</v>
+      </c>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>60</v>
       </c>
@@ -1558,8 +1723,18 @@
       <c r="G38">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L38" s="1">
+        <v>119050904603</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" s="4">
+        <v>2.0243941639119702</v>
+      </c>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>60</v>
       </c>
@@ -1582,7 +1757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>60</v>
       </c>
@@ -1605,7 +1780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>60</v>
       </c>
@@ -1628,7 +1803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>60</v>
       </c>
@@ -1651,10 +1826,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J44" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="1">
+        <v>172413927802</v>
+      </c>
+      <c r="N44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>80</v>
       </c>
@@ -1676,8 +1859,14 @@
       <c r="G45">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J45" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>80</v>
       </c>
@@ -1699,8 +1888,20 @@
       <c r="G46">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" t="s">
+        <v>31</v>
+      </c>
+      <c r="P46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>80</v>
       </c>
@@ -1722,8 +1923,22 @@
       <c r="G47">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J47" s="5"/>
+      <c r="K47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>80</v>
       </c>
@@ -1745,6 +1960,24 @@
       <c r="G48">
         <v>100</v>
       </c>
+      <c r="J48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1.2924587132540002</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1.2257750717604998</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1.2924587132540002</v>
+      </c>
+      <c r="P48" s="3">
+        <v>1.2257750717604998</v>
+      </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -1768,6 +2001,24 @@
       <c r="G49">
         <v>100</v>
       </c>
+      <c r="J49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="3">
+        <v>2.5797761055180876E-2</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1.1272407984103398E-2</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O49" s="3">
+        <v>2.5797761055180876E-2</v>
+      </c>
+      <c r="P49" s="3">
+        <v>1.1272407984103398E-2</v>
+      </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -1791,6 +2042,24 @@
       <c r="G50">
         <v>100</v>
       </c>
+      <c r="J50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="3">
+        <v>20</v>
+      </c>
+      <c r="L50" s="3">
+        <v>20</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O50" s="3">
+        <v>20</v>
+      </c>
+      <c r="P50" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
@@ -1814,6 +2083,22 @@
       <c r="G51">
         <v>100</v>
       </c>
+      <c r="J51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="3">
+        <v>19</v>
+      </c>
+      <c r="L51" s="3">
+        <v>19</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -1837,6 +2122,20 @@
       <c r="G52">
         <v>100</v>
       </c>
+      <c r="J52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="3">
+        <v>2.2885758829490075</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="N52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" s="3">
+        <v>33</v>
+      </c>
+      <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
@@ -1860,8 +2159,22 @@
       <c r="G53">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="3">
+        <v>3.9485461270622649E-2</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="N53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53" s="3">
+        <v>1.548895159708604</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>80</v>
       </c>
@@ -1883,6 +2196,20 @@
       <c r="G54">
         <v>100</v>
       </c>
+      <c r="J54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="4">
+        <v>2.1682516014062614</v>
+      </c>
+      <c r="L54" s="4"/>
+      <c r="N54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O54" s="3">
+        <v>6.5472509783716312E-2</v>
+      </c>
+      <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -1906,12 +2233,16 @@
       <c r="G55">
         <v>100</v>
       </c>
-      <c r="J55" t="s">
-        <v>33</v>
-      </c>
-      <c r="N55" t="s">
-        <v>33</v>
-      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="N55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O55" s="3">
+        <v>1.6923603090303456</v>
+      </c>
+      <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56">
@@ -1935,12 +2266,15 @@
       <c r="G56">
         <v>100</v>
       </c>
-      <c r="J56" t="s">
-        <v>10</v>
-      </c>
-      <c r="N56" t="s">
-        <v>27</v>
-      </c>
+      <c r="K56" s="3"/>
+      <c r="L56" s="7"/>
+      <c r="N56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" s="3">
+        <v>0.13094501956743262</v>
+      </c>
+      <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -1964,6 +2298,13 @@
       <c r="G57">
         <v>100</v>
       </c>
+      <c r="N57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O57" s="4">
+        <v>2.0345152974493397</v>
+      </c>
+      <c r="P57" s="4"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -1987,20 +2328,9 @@
       <c r="G58">
         <v>100</v>
       </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P58" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -2024,24 +2354,9 @@
       <c r="G59">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1.5557113716245001</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1.2924587132540002</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1.5557113716245001</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1.2924587132540002</v>
-      </c>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -2065,24 +2380,9 @@
       <c r="G60">
         <v>100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" s="3">
-        <v>3.8645291238033133E-2</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2.5797761055180876E-2</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O60" s="3">
-        <v>3.8645291238033133E-2</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2.5797761055180876E-2</v>
-      </c>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -2106,24 +2406,9 @@
       <c r="G61">
         <v>100</v>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K61" s="3">
-        <v>20</v>
-      </c>
-      <c r="L61" s="3">
-        <v>20</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O61" s="3">
-        <v>20</v>
-      </c>
-      <c r="P61" s="3">
-        <v>20</v>
-      </c>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -2147,22 +2432,6 @@
       <c r="G62">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K62" s="3">
-        <v>19</v>
-      </c>
-      <c r="L62" s="3">
-        <v>19</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O62" s="3">
-        <v>3.2221526146607005E-2</v>
-      </c>
-      <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -2186,20 +2455,6 @@
       <c r="G63">
         <v>100</v>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" s="3">
-        <v>1.4980095038236712</v>
-      </c>
-      <c r="L63" s="3"/>
-      <c r="N63" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O63" s="3">
-        <v>0</v>
-      </c>
-      <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -2223,36 +2478,11 @@
       <c r="G64">
         <v>100</v>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0.19313626964605204</v>
-      </c>
-      <c r="L64" s="3"/>
-      <c r="N64" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O64" s="3">
-        <v>38</v>
-      </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J65" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K65" s="4">
-        <v>2.1682516014062614</v>
-      </c>
-      <c r="L65" s="4"/>
-      <c r="N65" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O65" s="3">
-        <v>4.6376686076176794</v>
-      </c>
-      <c r="P65" s="3"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J65" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -2276,18 +2506,14 @@
       <c r="G66">
         <v>100</v>
       </c>
-      <c r="L66" s="1">
-        <v>131734400737</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2.0446245732345388E-5</v>
-      </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J66" t="s">
+        <v>10</v>
+      </c>
+      <c r="N66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>80</v>
       </c>
@@ -2309,16 +2535,12 @@
       <c r="G67">
         <v>100</v>
       </c>
-      <c r="L67" s="1">
-        <v>124914181672</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O67" s="3">
-        <v>1.6859544601667387</v>
-      </c>
-      <c r="P67" s="3"/>
+      <c r="K67" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
@@ -2342,18 +2564,22 @@
       <c r="G68">
         <v>100</v>
       </c>
-      <c r="L68" s="1">
-        <v>116631841312</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O68" s="3">
-        <v>4.0892491464690776E-5</v>
-      </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J68" s="5"/>
+      <c r="K68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>80</v>
       </c>
@@ -2375,16 +2601,24 @@
       <c r="G69">
         <v>100</v>
       </c>
-      <c r="L69" s="1">
-        <v>119050904603</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O69" s="4">
-        <v>2.0243941639119702</v>
-      </c>
-      <c r="P69" s="4"/>
+      <c r="J69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="3">
+        <v>1.5557113716245001</v>
+      </c>
+      <c r="L69" s="3">
+        <v>1.5829201971569999</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O69" s="3">
+        <v>1.5557113716245001</v>
+      </c>
+      <c r="P69" s="3">
+        <v>1.5829201971569999</v>
+      </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -2408,8 +2642,23 @@
       <c r="G70">
         <v>100</v>
       </c>
-      <c r="L70" s="1">
-        <v>131582025385</v>
+      <c r="J70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="3">
+        <v>3.8645291238033133E-2</v>
+      </c>
+      <c r="L70" s="3">
+        <v>1.0811943361915892E-2</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O70" s="3">
+        <v>3.8645291238033133E-2</v>
+      </c>
+      <c r="P70" s="3">
+        <v>1.0811943361915892E-2</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -2434,8 +2683,23 @@
       <c r="G71">
         <v>100</v>
       </c>
-      <c r="L71" s="1">
-        <v>153657399167</v>
+      <c r="J71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" s="3">
+        <v>20</v>
+      </c>
+      <c r="L71" s="3">
+        <v>20</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O71" s="3">
+        <v>20</v>
+      </c>
+      <c r="P71" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
@@ -2460,9 +2724,22 @@
       <c r="G72">
         <v>100</v>
       </c>
-      <c r="L72" s="1">
-        <v>154447941607</v>
-      </c>
+      <c r="J72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="3">
+        <v>19</v>
+      </c>
+      <c r="L72" s="3">
+        <v>19</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -2486,9 +2763,20 @@
       <c r="G73">
         <v>100</v>
       </c>
-      <c r="L73" s="1">
-        <v>196835750577</v>
-      </c>
+      <c r="J73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="3">
+        <v>3.5743149907867378</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="N73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O73" s="3">
+        <v>29</v>
+      </c>
+      <c r="P73" s="3"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -2512,11 +2800,22 @@
       <c r="G74">
         <v>100</v>
       </c>
-      <c r="L74" s="1">
-        <v>131425748135</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="3">
+        <v>3.9538889451605141E-3</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="N74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O74" s="3">
+        <v>-0.54715437877318052</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>80</v>
       </c>
@@ -2538,9 +2837,20 @@
       <c r="G75">
         <v>100</v>
       </c>
-      <c r="L75" s="1">
-        <v>168325082306</v>
-      </c>
+      <c r="J75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K75" s="4">
+        <v>2.1682516014062614</v>
+      </c>
+      <c r="L75" s="4"/>
+      <c r="N75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0.29422947410502642</v>
+      </c>
+      <c r="P75" s="3"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -2564,9 +2874,13 @@
       <c r="G76">
         <v>100</v>
       </c>
-      <c r="L76" s="1">
-        <v>147478812038</v>
-      </c>
+      <c r="N76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O76" s="3">
+        <v>1.6991270265334986</v>
+      </c>
+      <c r="P76" s="3"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -2590,11 +2904,15 @@
       <c r="G77">
         <v>100</v>
       </c>
-      <c r="L77" s="1">
-        <v>173609489925</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0.58845894821005285</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="78" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>80</v>
       </c>
@@ -2616,9 +2934,13 @@
       <c r="G78">
         <v>100</v>
       </c>
-      <c r="L78" s="1">
-        <v>180232698065</v>
-      </c>
+      <c r="N78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O78" s="4">
+        <v>2.0452296421327048</v>
+      </c>
+      <c r="P78" s="4"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -2672,7 +2994,7 @@
         <v>111233390338</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2698,7 +3020,7 @@
         <v>148609362242</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2724,7 +3046,7 @@
         <v>147243686825</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>80</v>
       </c>
@@ -2750,7 +3072,7 @@
         <v>173329436437</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>80</v>
       </c>
@@ -2776,7 +3098,7 @@
         <v>152756391624</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>80</v>
       </c>
@@ -2802,477 +3124,18 @@
         <v>138272919252</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L86" s="1">
         <v>163902403647</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L87" s="1">
         <v>145314909665</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J88" t="s">
-        <v>34</v>
-      </c>
-      <c r="L88" s="1">
-        <v>172413927802</v>
-      </c>
-      <c r="N88" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J89" t="s">
-        <v>10</v>
-      </c>
-      <c r="N89" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K90" t="s">
-        <v>31</v>
-      </c>
-      <c r="L90" t="s">
-        <v>30</v>
-      </c>
-      <c r="O90" t="s">
-        <v>31</v>
-      </c>
-      <c r="P90" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J91" s="5"/>
-      <c r="K91" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L91" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P91" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J92" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K92" s="3">
-        <v>1.2924587132540002</v>
-      </c>
-      <c r="L92" s="3">
-        <v>1.2257750717604998</v>
-      </c>
-      <c r="N92" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O92" s="3">
-        <v>1.2924587132540002</v>
-      </c>
-      <c r="P92" s="3">
-        <v>1.2257750717604998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K93" s="3">
-        <v>2.5797761055180876E-2</v>
-      </c>
-      <c r="L93" s="3">
-        <v>1.1272407984103398E-2</v>
-      </c>
-      <c r="N93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O93" s="3">
-        <v>2.5797761055180876E-2</v>
-      </c>
-      <c r="P93" s="3">
-        <v>1.1272407984103398E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J94" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K94" s="3">
-        <v>20</v>
-      </c>
-      <c r="L94" s="3">
-        <v>20</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O94" s="3">
-        <v>20</v>
-      </c>
-      <c r="P94" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J95" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K95" s="3">
-        <v>19</v>
-      </c>
-      <c r="L95" s="3">
-        <v>19</v>
-      </c>
-      <c r="N95" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O95" s="3">
-        <v>0</v>
-      </c>
-      <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J96" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K96" s="3">
-        <v>2.2885758829490075</v>
-      </c>
-      <c r="L96" s="3"/>
-      <c r="N96" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O96" s="3">
-        <v>33</v>
-      </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J97" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K97" s="3">
-        <v>3.9485461270622649E-2</v>
-      </c>
-      <c r="L97" s="3"/>
-      <c r="N97" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O97" s="3">
-        <v>1.548895159708604</v>
-      </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J98" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K98" s="4">
-        <v>2.1682516014062614</v>
-      </c>
-      <c r="L98" s="4"/>
-      <c r="N98" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O98" s="3">
-        <v>6.5472509783716312E-2</v>
-      </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="N99" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O99" s="3">
-        <v>1.6923603090303456</v>
-      </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="K100" s="3"/>
-      <c r="L100" s="7"/>
-      <c r="N100" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0.13094501956743262</v>
-      </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N101" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O101" s="4">
-        <v>2.0345152974493397</v>
-      </c>
-      <c r="P101" s="4"/>
-    </row>
-    <row r="102" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-    </row>
-    <row r="103" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-    </row>
-    <row r="104" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="N104" s="3"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
-    </row>
-    <row r="105" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
-      <c r="P105" s="7"/>
-    </row>
-    <row r="109" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J109" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="110" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J110" t="s">
-        <v>10</v>
-      </c>
-      <c r="N110" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K111" t="s">
-        <v>31</v>
-      </c>
-      <c r="L111" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J112" s="5"/>
-      <c r="K112" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L112" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P112" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J113" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K113" s="3">
-        <v>1.5557113716245001</v>
-      </c>
-      <c r="L113" s="3">
-        <v>1.5829201971569999</v>
-      </c>
-      <c r="N113" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O113" s="3">
-        <v>1.5557113716245001</v>
-      </c>
-      <c r="P113" s="3">
-        <v>1.5829201971569999</v>
-      </c>
-    </row>
-    <row r="114" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J114" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K114" s="3">
-        <v>3.8645291238033133E-2</v>
-      </c>
-      <c r="L114" s="3">
-        <v>1.0811943361915892E-2</v>
-      </c>
-      <c r="N114" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O114" s="3">
-        <v>3.8645291238033133E-2</v>
-      </c>
-      <c r="P114" s="3">
-        <v>1.0811943361915892E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J115" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K115" s="3">
-        <v>20</v>
-      </c>
-      <c r="L115" s="3">
-        <v>20</v>
-      </c>
-      <c r="N115" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O115" s="3">
-        <v>20</v>
-      </c>
-      <c r="P115" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J116" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K116" s="3">
-        <v>19</v>
-      </c>
-      <c r="L116" s="3">
-        <v>19</v>
-      </c>
-      <c r="N116" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O116" s="3">
-        <v>0</v>
-      </c>
-      <c r="P116" s="3"/>
-    </row>
-    <row r="117" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J117" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K117" s="3">
-        <v>3.5743149907867378</v>
-      </c>
-      <c r="L117" s="3"/>
-      <c r="N117" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O117" s="3">
-        <v>29</v>
-      </c>
-      <c r="P117" s="3"/>
-    </row>
-    <row r="118" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J118" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K118" s="3">
-        <v>3.9538889451605141E-3</v>
-      </c>
-      <c r="L118" s="3"/>
-      <c r="N118" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O118" s="3">
-        <v>-0.54715437877318052</v>
-      </c>
-      <c r="P118" s="3"/>
-    </row>
-    <row r="119" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J119" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K119" s="4">
-        <v>2.1682516014062614</v>
-      </c>
-      <c r="L119" s="4"/>
-      <c r="N119" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O119" s="3">
-        <v>0.29422947410502642</v>
-      </c>
-      <c r="P119" s="3"/>
-    </row>
-    <row r="120" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="N120" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O120" s="3">
-        <v>1.6991270265334986</v>
-      </c>
-      <c r="P120" s="3"/>
-    </row>
-    <row r="121" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="N121" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O121" s="3">
-        <v>0.58845894821005285</v>
-      </c>
-      <c r="P121" s="3"/>
-    </row>
-    <row r="122" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N122" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O122" s="4">
-        <v>2.0452296421327048</v>
-      </c>
-      <c r="P122" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>